--- a/biology/Microbiologie/Tetrahymena_pyriformis/Tetrahymena_pyriformis.xlsx
+++ b/biology/Microbiologie/Tetrahymena_pyriformis/Tetrahymena_pyriformis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tetrahymena pyriformis est une espèce de ciliés vivant principalement dans les eaux dormantes. Sa présence est souvent le signe d'une eau fortement polluée.
-Les chercheurs en biochimie utilisent les espèces Tetrahymena thermophila et Tetrahymena pyriformis[4] comme organismes modèles.
-On a par exemple montré que cette espèce dispose de récepteurs hormonaux, dont l'un induit la production de mélatonine, quand elle est exposée à de faibles dose de cette hormone, notamment impliqué dans la photoadaptation[5] avec des effets d'attractivité vers la lumière  le jour[6], de chemotactisme la nuit[6] et autres[6].
+Les chercheurs en biochimie utilisent les espèces Tetrahymena thermophila et Tetrahymena pyriformis comme organismes modèles.
+On a par exemple montré que cette espèce dispose de récepteurs hormonaux, dont l'un induit la production de mélatonine, quand elle est exposée à de faibles dose de cette hormone, notamment impliqué dans la photoadaptation avec des effets d'attractivité vers la lumière  le jour, de chemotactisme la nuit et autres.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(de) Ehrenberg, 1830 : Beiträge zur Kenntnifs der Organisation der Infusorien und ihrer geographischen Verbreitnung. Abhandlungen der Königlichen Akademie der Wissenschaften in Berlin, vol. 1830, pp. 1-88 (texte intégral).</t>
         </is>
